--- a/biology/Zoologie/Gephyromantis_eiselti/Gephyromantis_eiselti.xlsx
+++ b/biology/Zoologie/Gephyromantis_eiselti/Gephyromantis_eiselti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gephyromantis eiselti est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gephyromantis eiselti est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 800 et 1 200 m d'altitude dans les environs de Andasibe[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 800 et 1 200 m d'altitude dans les environs de Andasibe.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gephyromantis eiselti mesure de 20 à 23 mm. Son dos est uniformément brun clair. Ses lèvres sont rayées de jaune et brun. Son ventre est parsemé de points sombres. Les mâles ont un seul sac vocal, toutefois lorsqu'il est gonflé on pourrait penser qu'il en a deux à cause des replis de la gorge[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gephyromantis eiselti mesure de 20 à 23 mm. Son dos est uniformément brun clair. Ses lèvres sont rayées de jaune et brun. Son ventre est parsemé de points sombres. Les mâles ont un seul sac vocal, toutefois lorsqu'il est gonflé on pourrait penser qu'il en a deux à cause des replis de la gorge.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Josef Eiselt[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Josef Eiselt.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Guibé, 1975 : Batraciens nouveaux de Madagascar. Bulletin du Museum National d'Histoire Naturelle, sér. 3, Zoologie, vol. 323, p. 1081-1089 (texte intégral).</t>
         </is>
